--- a/Reports/fichamentoTcc2019.xlsx
+++ b/Reports/fichamentoTcc2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\PycharmProjects\tccpython\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Referência</t>
   </si>
@@ -147,6 +147,12 @@
       </rPr>
       <t>Engenharia de Software</t>
     </r>
+  </si>
+  <si>
+    <t>pg 50.</t>
+  </si>
+  <si>
+    <t>pg 80</t>
   </si>
 </sst>
 </file>
@@ -218,14 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -233,12 +233,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:H16"/>
+  <dimension ref="E2:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E16" sqref="E16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,104 +543,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="5:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="6" t="s">
-        <v>3</v>
+      <c r="E14" s="9"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="5:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="5:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E15:G15"/>
     <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Reports/fichamentoTcc2019.xlsx
+++ b/Reports/fichamentoTcc2019.xlsx
@@ -176,16 +176,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -234,7 +235,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -243,11 +247,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +533,7 @@
   <dimension ref="E2:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:G16"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,32 +544,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="5:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
@@ -582,66 +583,66 @@
       </c>
     </row>
     <row r="7" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="9"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="5:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Reports/fichamentoTcc2019.xlsx
+++ b/Reports/fichamentoTcc2019.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Referência</t>
   </si>
@@ -147,12 +147,6 @@
       </rPr>
       <t>Engenharia de Software</t>
     </r>
-  </si>
-  <si>
-    <t>pg 50.</t>
-  </si>
-  <si>
-    <t>pg 80</t>
   </si>
 </sst>
 </file>
@@ -241,14 +235,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,32 +538,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="5:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
@@ -583,9 +577,7 @@
       </c>
     </row>
     <row r="7" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -626,18 +618,16 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="5:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>

--- a/Reports/fichamentoTcc2019.xlsx
+++ b/Reports/fichamentoTcc2019.xlsx
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Reports/fichamentoTcc2019.xlsx
+++ b/Reports/fichamentoTcc2019.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Referência</t>
   </si>
@@ -148,12 +148,33 @@
       <t>Engenharia de Software</t>
     </r>
   </si>
+  <si>
+    <t>https://endomarketing.tv/importancia-da-comunicacao-nas-organizacoes/#.XKD315hKiM9</t>
+  </si>
+  <si>
+    <r>
+      <t>Segundo pesquisa realizada pela secretária executiva Elaine Bez Birolo Casagrande, no ano de 2010, em uma empresa do ramo alimentício na cidade de Jacinto Machado, Santa Catarina, pode-se dizer que 52% dos colaboradores entendem parcialmente as informações que recebem e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF505C66"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>apenas 22% compreendem a mensagem por completo [...]</t>
+    </r>
+  </si>
+  <si>
+    <t>Tirei desse link a citação de um conceito sobre a importância da comunicação inserido na introdução do projeto;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +202,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF505C66"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF505C66"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -216,16 +258,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,8 +284,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,113 +579,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="95.140625" customWidth="1"/>
     <col min="6" max="7" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="5:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
+    <row r="7" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
+    <row r="10" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
+    <row r="11" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
+    <row r="12" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
+    <row r="13" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="5"/>
+    <row r="14" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="5:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
+    <row r="15" spans="5:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="5:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -643,8 +702,11 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E16:G16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" location=".XKD315hKiM9"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>